--- a/src/test/resources/testdataCMS/GetProductInfo.xlsx
+++ b/src/test/resources/testdataCMS/GetProductInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FRAMEWORK\AutomationFrameworkSelenium\src\test\resources\testdataCMS\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -83,12 +83,40 @@
   </si>
   <si>
     <t>Buy Cozy Seed Butter Cookies 336g paper box (TET TEMPLATE 2022) at good price. Buy online reputable, convenient.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Gio qua Tet hquHA</t>
+  </si>
+  <si>
+    <t>$490,000.00</t>
+  </si>
+  <si>
+    <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -98,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +135,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="2">
@@ -136,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +195,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -448,12 +569,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="112.8984375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" style="1" width="9.0"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.296875"/>
+    <col min="3" max="3" customWidth="true" style="2" width="11.796875"/>
+    <col min="4" max="4" customWidth="true" style="2" width="6.19921875"/>
+    <col min="5" max="5" customWidth="true" style="3" width="112.8984375"/>
+    <col min="6" max="16384" style="2" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -575,6 +696,108 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="20">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s" s="28">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s" s="31">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="32">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="36">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="37">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="38">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s" s="39">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdataCMS/GetProductInfo.xlsx
+++ b/src/test/resources/testdataCMS/GetProductInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +198,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -561,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -798,6 +816,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="40">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s" s="41">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="42">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="43">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s" s="44">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdataCMS/GetProductInfo.xlsx
+++ b/src/test/resources/testdataCMS/GetProductInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +201,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -579,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -833,6 +851,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="45">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s" s="46">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s" s="47">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="48">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s" s="49">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
